--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3799.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3799.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.960751349566312</v>
+        <v>1.952336311340332</v>
       </c>
       <c r="B1">
-        <v>2.146270927282187</v>
+        <v>7.339256763458252</v>
       </c>
       <c r="C1">
-        <v>2.454928765584577</v>
+        <v>4.07763147354126</v>
       </c>
       <c r="D1">
-        <v>3.937277199466282</v>
+        <v>2.085773468017578</v>
       </c>
       <c r="E1">
-        <v>1.549020294427907</v>
+        <v>1.44983446598053</v>
       </c>
     </row>
   </sheetData>
